--- a/ResultadoEleicoesDistritos/VISEU_OLIVEIRA DE FRADES.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_OLIVEIRA DE FRADES.xlsx
@@ -597,64 +597,64 @@
         <v>2586</v>
       </c>
       <c r="H2" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I2" t="n">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="J2" t="n">
-        <v>1051</v>
+        <v>1082</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="M2" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>14</v>
+      </c>
+      <c r="S2" t="n">
+        <v>110</v>
+      </c>
+      <c r="T2" t="n">
+        <v>188</v>
+      </c>
+      <c r="U2" t="n">
+        <v>16</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1655</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>114</v>
-      </c>
-      <c r="T2" t="n">
-        <v>207</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
+        <v>1656</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="n">
         <v>14</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1671</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1655</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
